--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2619967.506318124</v>
+        <v>2617423.719572666</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.382814765184</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.382814765184</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179686</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627103</v>
       </c>
       <c r="U2" t="n">
-        <v>207.5144425406755</v>
+        <v>123.4058207879677</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807545</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1905846264271</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>71.11625188959546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>164.1419050005151</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>118.7398870314512</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718862</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.382814765184</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>73.87795854143071</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>263.7138800015061</v>
@@ -911,10 +911,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>79.24302978361793</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>46.61022226819643</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>182.8930627139719</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>43.9693807464451</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0477154881478</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.5544178475189</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.6554498073237</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>139.6887432323035</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>90.99395968649114</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>185.6920487814951</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977584</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704672973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4970442233422</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233422</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233422</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233422</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741387</v>
+        <v>553.157119656334</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>287.1138724187743</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467345</v>
+        <v>49.15993901467448</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935563</v>
+        <v>141.9970572935588</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959974</v>
+        <v>294.0714735960018</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795978</v>
+        <v>494.9530007796045</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670326</v>
+        <v>703.6988094670423</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288945</v>
+        <v>887.4762960289063</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1009.825128108081</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193382</v>
+        <v>899.1940867193537</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193382</v>
+        <v>684.7549646358078</v>
       </c>
       <c r="U2" t="n">
-        <v>689.5835386984538</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="V2" t="n">
-        <v>423.5402914608979</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="W2" t="n">
-        <v>423.5402914608979</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="X2" t="n">
-        <v>423.5402914608979</v>
+        <v>560.1026204055374</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.4970442233422</v>
+        <v>560.1026204055374</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.1069962668927</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="C3" t="n">
-        <v>620.6539669857657</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="D3" t="n">
-        <v>471.7195573245145</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="E3" t="n">
-        <v>312.482102319059</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="F3" t="n">
-        <v>165.947544345944</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129063</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371033</v>
+        <v>95.6566500137118</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420709</v>
+        <v>242.2693060433199</v>
       </c>
       <c r="M3" t="n">
-        <v>528.646012628657</v>
+        <v>432.7162285299078</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767061</v>
+        <v>642.6123592779587</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748521</v>
+        <v>812.4065171761063</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.27801606222</v>
+        <v>1025.278016062234</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155239</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155239</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155239</v>
+        <v>856.7196849208275</v>
       </c>
       <c r="U3" t="n">
-        <v>963.3223332869607</v>
+        <v>856.7196849208275</v>
       </c>
       <c r="V3" t="n">
-        <v>963.3223332869607</v>
+        <v>690.9197808799031</v>
       </c>
       <c r="W3" t="n">
-        <v>963.3223332869607</v>
+        <v>436.6824241517015</v>
       </c>
       <c r="X3" t="n">
-        <v>963.3223332869607</v>
+        <v>228.8309239461686</v>
       </c>
       <c r="Y3" t="n">
-        <v>963.3223332869607</v>
+        <v>21.07062518121472</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.7491290191734</v>
+        <v>358.5766878624487</v>
       </c>
       <c r="C4" t="n">
-        <v>435.8129460912666</v>
+        <v>189.6405049345418</v>
       </c>
       <c r="D4" t="n">
-        <v>435.8129460912666</v>
+        <v>189.6405049345418</v>
       </c>
       <c r="E4" t="n">
-        <v>287.8998525088734</v>
+        <v>189.6405049345418</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0099050109631</v>
+        <v>189.6405049345418</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0099050109631</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121472</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481198</v>
+        <v>126.3277805481208</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504849</v>
+        <v>316.5471352504868</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157082</v>
+        <v>527.4958971570848</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210594</v>
+        <v>738.8633854210631</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376789</v>
+        <v>918.0791761376834</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351421</v>
+        <v>1047.079201097386</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060736</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060721</v>
+        <v>924.7153898972148</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060721</v>
+        <v>924.7153898972148</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060721</v>
+        <v>699.244135646908</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060721</v>
+        <v>433.2008884093484</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060721</v>
+        <v>358.5766878624487</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060721</v>
+        <v>358.5766878624487</v>
       </c>
       <c r="X4" t="n">
-        <v>825.5417081627036</v>
+        <v>358.5766878624487</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.7491290191734</v>
+        <v>358.5766878624487</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C5" t="n">
-        <v>833.1938928750989</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>367.5182313951954</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>101.1405748280174</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.8035330399423</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="X6" t="n">
-        <v>851.7791688249642</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="Y6" t="n">
-        <v>644.0188700600104</v>
+        <v>168.6623048843692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.0332933280274</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W7" t="n">
-        <v>820.4638881998146</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4743373017973</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.6817581582671</v>
+        <v>213.4237198880137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755572</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.071510755572</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>722.8058121488214</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>337.0175595505771</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819694</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>119.9870984135523</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>304.7087196946023</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>599.412276726074</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505113</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>298.2016738773002</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.533029482082</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1255.41469198592</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1000.730203780033</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>479.8501387075399</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,16 +5057,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5598,13 +5598,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
         <v>1140.291933891999</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,7 +6230,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782906</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038293</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797695</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069453</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7190,31 +7190,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,13 +7245,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877308</v>
+        <v>60.59164343877225</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079564</v>
+        <v>2.109135423078897</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692324</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>96.89877181692805</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634959</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719665</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.454437538930264</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>35.91627445172509</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>31.71340154579315</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543363</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>77.2460287070935</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194683</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796974.7947420932</v>
+        <v>796974.7947420934</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.412490929</v>
+        <v>679702.4124909334</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680944494</v>
+        <v>366.4703680902168</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.129336565339467e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642102</v>
+        <v>68912.53318642185</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774266889</v>
+        <v>85.20559774174721</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756983</v>
+        <v>95382.64613756968</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.547767402</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26427,37 +26427,37 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181823</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="J4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181808</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.9201818181</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181811</v>
-      </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181819</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557687</v>
+        <v>63021.46164557716</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339007.0060124826</v>
+        <v>-339007.006012486</v>
       </c>
       <c r="C6" t="n">
-        <v>340402.377411731</v>
+        <v>340402.3774117351</v>
       </c>
       <c r="D6" t="n">
-        <v>30020.3223779394</v>
+        <v>30020.32237793939</v>
       </c>
       <c r="E6" t="n">
-        <v>24722.38812173379</v>
+        <v>24687.65019629817</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.82974628</v>
+        <v>532173.091820844</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.091820844</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="J6" t="n">
-        <v>463295.2965598588</v>
+        <v>463260.5586344223</v>
       </c>
       <c r="K6" t="n">
-        <v>532122.6241485367</v>
+        <v>532087.8862231022</v>
       </c>
       <c r="L6" t="n">
-        <v>436825.1836087102</v>
+        <v>436790.4456832744</v>
       </c>
       <c r="M6" t="n">
-        <v>399600.5360173532</v>
+        <v>399565.798091917</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462801</v>
+        <v>532173.091820844</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462801</v>
+        <v>532173.091820844</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208441</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960509</v>
+        <v>613.7700232960542</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.382814765184</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960509</v>
+        <v>613.7700232960542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734273423</v>
+        <v>0.2849904734240454</v>
       </c>
       <c r="D3" t="n">
         <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.382814765184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363221038</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.965991048521249e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.382814765184</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325685</v>
+        <v>0.3310652363221038</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.382814765184</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363221038</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.965991048521249e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.4525055708714</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>50.822551165334</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.350788773939</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>43.6338169928346</v>
+        <v>127.7424387455425</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495468</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908734</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48524054500673</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9429094280752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642666</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>154.7382759427997</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>68.65868214891015</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.64684149593039</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825659</v>
+        <v>15.10853304825618</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.87584376934331</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>178.2596847823973</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.8278809113911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402053</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>36.06358976327918</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>111.0348581872045</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27746,19 +27746,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>22.87992248950553</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.8625994354922</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>54.47528284844319</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.1794238159617</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.2205959343877</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>7.562765922825321</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>129.7547363107208</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-5.220511838913432e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4674171790796</v>
+        <v>2.467417179079613</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524896</v>
+        <v>25.26943618524909</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646636</v>
+        <v>95.12510079646687</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029085</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933486</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876043</v>
+        <v>389.3769364876064</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460611</v>
+        <v>433.2568667460634</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061211</v>
+        <v>440.2674158061234</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.7320362316505</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231206</v>
+        <v>354.8176746231225</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973338</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753599</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827644</v>
+        <v>56.22626896827674</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142101</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.197393374326369</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.320184578410381</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148973</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333987</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435878</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.1808579970833</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289718</v>
+        <v>286.6479717289733</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963477</v>
+        <v>334.5046626963495</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682314</v>
+        <v>343.3580057682332</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466137</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643995</v>
+        <v>252.0973516439963</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774374</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621604</v>
+        <v>81.96724952621648</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564894</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311987</v>
+        <v>5.321270296312015</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962988</v>
+        <v>0.08685424857963035</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665016</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058003</v>
+        <v>9.840443980058055</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923503</v>
+        <v>33.28444650923521</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841619</v>
+        <v>78.2506470684166</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.5898507823536</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653061</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.4956805195715</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187284</v>
+        <v>169.3703410187293</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148697</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005033</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770368</v>
+        <v>92.67927351770419</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528306</v>
+        <v>49.76568090528333</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735304</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477768</v>
+        <v>4.729047720477793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354605</v>
+        <v>0.06037082196354638</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302374</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>254.8897444730604</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>483.3274636075168</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120944</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975246</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435955</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514482</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717718</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048123</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394823</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622109</v>
+        <v>28.3730442762222</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836637</v>
+        <v>93.77486694836801</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176191</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.9106335187907</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095301</v>
+        <v>210.8543522095325</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.6338248099637</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.5846788678529</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288285</v>
+        <v>44.14760702288427</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272315</v>
+        <v>75.33941902272431</v>
       </c>
       <c r="L3" t="n">
-        <v>244.9923637660208</v>
+        <v>148.0935919490991</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743294</v>
+        <v>192.3706287743312</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684898</v>
+        <v>212.0162936848999</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021676</v>
+        <v>171.5092504021692</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296647</v>
+        <v>215.0217160465941</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141496</v>
+        <v>28.53862929141587</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>106.3203589564708</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.1407623256222</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>213.0795574814121</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397957</v>
+        <v>213.5025133979579</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0260512289094</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>130.3030555148516</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615454478</v>
+        <v>6.517230266009804</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43465842984769</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>371.3409564478481</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579301</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>116.3353646931863</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>340.7312191630724</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>388.444496528761</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831943</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629482</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991511</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>253.050815171574</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187907</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281558</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
